--- a/storage/database/choice.xlsx
+++ b/storage/database/choice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\LaravelWS\PigFarm\storage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6894FF9D-1ECE-4C98-A785-8002AFD7A392}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2D8E91-8101-4BBA-8C61-3D8A950AD8CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27636" windowHeight="14004" xr2:uid="{9961011E-DC10-4E76-B192-29200FDB07B8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -133,7 +133,76 @@
     <t>parent_name</t>
   </si>
   <si>
-    <t>{}</t>
+    <t>วัคซีน</t>
+  </si>
+  <si>
+    <t>FMD.</t>
+  </si>
+  <si>
+    <t>PRRS.</t>
+  </si>
+  <si>
+    <t>SF.</t>
+  </si>
+  <si>
+    <t>AD.</t>
+  </si>
+  <si>
+    <t>AR.</t>
+  </si>
+  <si>
+    <t>PV.</t>
+  </si>
+  <si>
+    <t>VACCINE</t>
+  </si>
+  <si>
+    <t>VACCINE_001</t>
+  </si>
+  <si>
+    <t>VACCINE_002</t>
+  </si>
+  <si>
+    <t>VACCINE_003</t>
+  </si>
+  <si>
+    <t>VACCINE_004</t>
+  </si>
+  <si>
+    <t>VACCINE_005</t>
+  </si>
+  <si>
+    <t>VACCINE_006</t>
+  </si>
+  <si>
+    <t>สายพันธุ์</t>
+  </si>
+  <si>
+    <t>GGPL</t>
+  </si>
+  <si>
+    <t>GGPY</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>BREED</t>
+  </si>
+  <si>
+    <t>BREED_001</t>
+  </si>
+  <si>
+    <t>BREED_002</t>
+  </si>
+  <si>
+    <t>BREED_003</t>
+  </si>
+  <si>
+    <t>BREED_004</t>
   </si>
 </sst>
 </file>
@@ -488,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2820448-9907-429D-8FAD-8BDDCA1DD31A}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,8 +568,8 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="70.33203125" customWidth="1"/>
-    <col min="7" max="7" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -538,12 +607,8 @@
         <v>7</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -559,12 +624,8 @@
         <v>9</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -580,12 +641,8 @@
         <v>11</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -601,12 +658,8 @@
         <v>13</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -622,12 +675,8 @@
         <v>15</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -643,12 +692,8 @@
         <v>17</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -664,12 +709,8 @@
         <v>19</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -685,12 +726,8 @@
         <v>21</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -706,12 +743,8 @@
         <v>23</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -727,12 +760,8 @@
         <v>25</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -748,12 +777,8 @@
         <v>27</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -768,12 +793,8 @@
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -788,12 +809,8 @@
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -808,14 +825,180 @@
       <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>35</v>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/database/choice.xlsx
+++ b/storage/database/choice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\LaravelWS\PigFarm\storage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2D8E91-8101-4BBA-8C61-3D8A950AD8CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7616BA39-3A88-43F2-A5AF-58F47BFBD010}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27636" windowHeight="14004" xr2:uid="{9961011E-DC10-4E76-B192-29200FDB07B8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -203,6 +203,30 @@
   </si>
   <si>
     <t>BREED_004</t>
+  </si>
+  <si>
+    <t>BREEDERSTATUS</t>
+  </si>
+  <si>
+    <t>สถานะการผสมพันธุ์</t>
+  </si>
+  <si>
+    <t>BREEDERSTATUS_001</t>
+  </si>
+  <si>
+    <t>BREEDERSTATUS_002</t>
+  </si>
+  <si>
+    <t>ปกติ</t>
+  </si>
+  <si>
+    <t>สำเร็จ</t>
+  </si>
+  <si>
+    <t>BREEDERSTATUS_003</t>
+  </si>
+  <si>
+    <t>ล้มเหลว</t>
   </si>
 </sst>
 </file>
@@ -557,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2820448-9907-429D-8FAD-8BDDCA1DD31A}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,6 +1021,59 @@
         <v>53</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/storage/database/choice.xlsx
+++ b/storage/database/choice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\LaravelWS\PigFarm\storage\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspaces\LaravelWS\pigfarm\storage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7616BA39-3A88-43F2-A5AF-58F47BFBD010}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73782F70-31B7-4AF2-A75F-4FA4B70DE37E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27636" windowHeight="14004" xr2:uid="{9961011E-DC10-4E76-B192-29200FDB07B8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="14010" xr2:uid="{9961011E-DC10-4E76-B192-29200FDB07B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -227,12 +227,36 @@
   </si>
   <si>
     <t>ล้มเหลว</t>
+  </si>
+  <si>
+    <t>PIGSTATUS</t>
+  </si>
+  <si>
+    <t>สถานะหมู</t>
+  </si>
+  <si>
+    <t>PIGSTATUS_001</t>
+  </si>
+  <si>
+    <t>PIGSTATUS_002</t>
+  </si>
+  <si>
+    <t>PIGSTATUS_003</t>
+  </si>
+  <si>
+    <t>อยู่ในฝูง</t>
+  </si>
+  <si>
+    <t>ตาย</t>
+  </si>
+  <si>
+    <t>คัดทิ้ง</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,8 +295,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{FD97B4BA-0967-4EF9-8709-3A43E3A9C774}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -581,22 +633,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2820448-9907-429D-8FAD-8BDDCA1DD31A}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -634,7 +686,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -651,7 +703,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -668,7 +720,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -685,7 +737,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -702,7 +754,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -719,7 +771,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -736,7 +788,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -753,7 +805,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -770,7 +822,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -787,7 +839,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -804,7 +856,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -820,7 +872,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -836,7 +888,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -852,7 +904,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -864,7 +916,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -879,7 +931,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -894,7 +946,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -909,7 +961,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -924,7 +976,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -939,7 +991,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -954,7 +1006,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -965,7 +1017,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -979,7 +1031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -993,7 +1045,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1007,7 +1059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1021,7 +1073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1032,7 +1084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1046,7 +1098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1060,7 +1112,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1072,6 +1124,59 @@
       </c>
       <c r="D31" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
